--- a/reports/seeded_teams.xlsx
+++ b/reports/seeded_teams.xlsx
@@ -8,15 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a11khan\Documents\Here_Projects\OfficePrj\TLOL_Dash\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F0C8B9-7611-49FF-A292-AA9465DC1716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C8ADDA-985F-4139-B26F-C62160F9DC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D42FFFD5-6F28-4196-B78D-AA8DC1C235B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D42FFFD5-6F28-4196-B78D-AA8DC1C235B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Foosball" sheetId="1" r:id="rId1"/>
     <sheet name="Carrom" sheetId="2" r:id="rId2"/>
     <sheet name="Chess" sheetId="3" r:id="rId3"/>
+    <sheet name="Table Tennis" sheetId="4" r:id="rId4"/>
+    <sheet name="Badminton" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Carrom!$A$1:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Chess!$A$1:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foosball!$A$1:$D$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="68">
   <si>
     <t>Player 1</t>
   </si>
@@ -223,28 +230,22 @@
     <t xml:space="preserve">Pritam </t>
   </si>
   <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Winner</t>
-  </si>
-  <si>
-    <t>Loser</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t>Player</t>
   </si>
   <si>
-    <t>Round 1</t>
-  </si>
-  <si>
-    <t>Eliminated</t>
-  </si>
-  <si>
     <t>Seed</t>
+  </si>
+  <si>
+    <t>Gully Gang</t>
+  </si>
+  <si>
+    <t>Dabangg Dynamos</t>
+  </si>
+  <si>
+    <t>Rockstar Rebels</t>
+  </si>
+  <si>
+    <t>Badshah Blasters</t>
   </si>
 </sst>
 </file>
@@ -1105,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F23CA2-6A6C-45FB-9B86-B9BAA1F7A58B}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,10 +1118,9 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1128,19 +1128,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1151,16 +1145,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1171,16 +1159,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1191,16 +1173,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1211,16 +1187,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1231,16 +1201,10 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1251,16 +1215,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1271,16 +1229,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1291,16 +1243,10 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1311,16 +1257,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1331,16 +1271,10 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1351,16 +1285,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1371,16 +1299,10 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1391,16 +1313,10 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
         <v>64</v>
       </c>
-      <c r="F14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1411,16 +1327,10 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
         <v>64</v>
       </c>
-      <c r="F15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1431,16 +1341,10 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
         <v>64</v>
       </c>
-      <c r="F16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1451,16 +1355,10 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1471,16 +1369,10 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1491,16 +1383,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
         <v>64</v>
       </c>
-      <c r="F19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1511,16 +1397,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1531,16 +1411,10 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1551,16 +1425,10 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1571,16 +1439,10 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -1591,16 +1453,10 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1611,13 +1467,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1627,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6643A701-20FF-4111-A994-F7CC2357235D}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1638,7 +1488,7 @@
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1646,19 +1496,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1669,16 +1513,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1689,16 +1527,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
         <v>64</v>
       </c>
-      <c r="F3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1709,16 +1541,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
         <v>64</v>
       </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1729,16 +1555,10 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1749,16 +1569,10 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
         <v>64</v>
       </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1769,16 +1583,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1789,16 +1597,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1809,16 +1611,10 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1829,16 +1625,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1849,16 +1639,10 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1869,16 +1653,10 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1889,16 +1667,10 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1909,16 +1681,10 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1929,16 +1695,10 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1949,16 +1709,10 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1969,16 +1723,10 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1989,16 +1737,10 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2009,16 +1751,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -2029,16 +1765,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2049,16 +1779,10 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -2069,16 +1793,10 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -2089,16 +1807,10 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2109,16 +1821,10 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -2129,13 +1835,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2145,10 +1845,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE99394-268D-4AAF-8102-131EFBDB31BD}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2159,16 +1860,16 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2184,13 +1885,13 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2201,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -2217,7 +1918,7 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -2228,13 +1929,13 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2250,7 +1951,7 @@
         <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2261,7 +1962,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2272,7 +1973,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2283,7 +1984,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2294,13 +1995,13 @@
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2316,13 +2017,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2338,13 +2039,13 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2360,7 +2061,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -2371,7 +2072,7 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -2382,13 +2083,13 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -2404,7 +2105,7 @@
         <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -2415,7 +2116,7 @@
         <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -2426,13 +2127,13 @@
         <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2448,13 +2149,13 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2470,13 +2171,13 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2492,13 +2193,13 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2514,7 +2215,7 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -2525,7 +2226,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -2536,7 +2237,7 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -2547,7 +2248,7 @@
         <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -2558,7 +2259,7 @@
         <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -2569,13 +2270,13 @@
         <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -2591,13 +2292,13 @@
         <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -2613,13 +2314,13 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -2635,7 +2336,7 @@
         <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -2646,7 +2347,7 @@
         <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -2657,7 +2358,7 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -2668,7 +2369,7 @@
         <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -2679,13 +2380,13 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -2694,6 +2395,743 @@
       </c>
       <c r="C49">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C49" xr:uid="{4FE99394-268D-4AAF-8102-131EFBDB31BD}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD4D867-1FA3-4124-9455-BFE44F482783}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF24F6F-62A7-4781-BE48-C5BAE16E1D19}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/reports/seeded_teams.xlsx
+++ b/reports/seeded_teams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foosball" sheetId="1" state="visible" r:id="rId1"/>
@@ -864,6 +864,9 @@
           <t>w</t>
         </is>
       </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -897,6 +900,9 @@
           <t>w</t>
         </is>
       </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -925,6 +931,9 @@
       <c r="F12" t="n">
         <v>8</v>
       </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -953,6 +962,9 @@
       <c r="F13" t="n">
         <v>6</v>
       </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -981,6 +993,9 @@
       <c r="F14" t="n">
         <v>6</v>
       </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1075,6 +1090,9 @@
       <c r="F17" t="n">
         <v>4</v>
       </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1103,6 +1121,9 @@
       <c r="F18" t="n">
         <v>1</v>
       </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1131,6 +1152,9 @@
       <c r="F19" t="n">
         <v>8</v>
       </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1159,6 +1183,9 @@
       <c r="F20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1187,6 +1214,9 @@
       <c r="F21" t="n">
         <v>3</v>
       </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1215,6 +1245,9 @@
       <c r="F22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1243,6 +1276,9 @@
       <c r="F23" t="n">
         <v>4</v>
       </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1271,6 +1307,9 @@
       <c r="F24" t="n">
         <v>3</v>
       </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1298,6 +1337,9 @@
       </c>
       <c r="F25" t="n">
         <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1687,6 +1729,9 @@
       <c r="F10" t="n">
         <v>3</v>
       </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1715,6 +1760,9 @@
       <c r="F11" t="n">
         <v>7</v>
       </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1743,6 +1791,9 @@
       <c r="F12" t="n">
         <v>1</v>
       </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1771,6 +1822,9 @@
       <c r="F13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1799,6 +1853,9 @@
       <c r="F14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1827,6 +1884,9 @@
       <c r="F15" t="n">
         <v>5</v>
       </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1855,6 +1915,9 @@
       <c r="F16" t="n">
         <v>4</v>
       </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1883,6 +1946,9 @@
       <c r="F17" t="n">
         <v>6</v>
       </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1911,6 +1977,9 @@
       <c r="F18" t="n">
         <v>3</v>
       </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1939,6 +2008,9 @@
       <c r="F19" t="n">
         <v>8</v>
       </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1967,6 +2039,9 @@
       <c r="F20" t="n">
         <v>6</v>
       </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1995,6 +2070,9 @@
       <c r="F21" t="n">
         <v>7</v>
       </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2023,6 +2101,9 @@
       <c r="F22" t="n">
         <v>1</v>
       </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2051,6 +2132,9 @@
       <c r="F23" t="n">
         <v>8</v>
       </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2079,6 +2163,9 @@
       <c r="F24" t="n">
         <v>4</v>
       </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2106,6 +2193,9 @@
       </c>
       <c r="F25" t="n">
         <v>5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2560,7 +2650,9 @@
         <v>2</v>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -2597,7 +2689,9 @@
         <v>1</v>
       </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -2634,7 +2728,9 @@
         <v>3</v>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -2671,7 +2767,9 @@
         <v>5</v>
       </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -2708,7 +2806,9 @@
         <v>3</v>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -2745,7 +2845,9 @@
         <v>2</v>
       </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -2782,7 +2884,9 @@
         <v>7</v>
       </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -2819,7 +2923,9 @@
         <v>6</v>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -2856,7 +2962,9 @@
         <v>4</v>
       </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -2893,7 +3001,9 @@
         <v>1</v>
       </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -2930,7 +3040,9 @@
         <v>7</v>
       </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2967,7 +3079,9 @@
         <v>8</v>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -3004,7 +3118,9 @@
         <v>5</v>
       </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -3041,7 +3157,9 @@
         <v>4</v>
       </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -3078,7 +3196,9 @@
         <v>6</v>
       </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -3115,7 +3235,9 @@
         <v>8</v>
       </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -3695,6 +3817,9 @@
       <c r="E18" t="n">
         <v>13</v>
       </c>
+      <c r="G18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3764,6 +3889,9 @@
       <c r="E21" t="n">
         <v>10</v>
       </c>
+      <c r="G21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3787,6 +3915,9 @@
       <c r="E22" t="n">
         <v>4</v>
       </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3810,6 +3941,9 @@
       <c r="E23" t="n">
         <v>7</v>
       </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3833,6 +3967,9 @@
       <c r="E24" t="n">
         <v>15</v>
       </c>
+      <c r="G24" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3856,6 +3993,9 @@
       <c r="E25" t="n">
         <v>9</v>
       </c>
+      <c r="G25" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3879,6 +4019,9 @@
       <c r="E26" t="n">
         <v>7</v>
       </c>
+      <c r="G26" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3902,6 +4045,9 @@
       <c r="E27" t="n">
         <v>16</v>
       </c>
+      <c r="G27" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3925,6 +4071,9 @@
       <c r="E28" t="n">
         <v>11</v>
       </c>
+      <c r="G28" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3948,6 +4097,9 @@
       <c r="E29" t="n">
         <v>15</v>
       </c>
+      <c r="G29" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3971,6 +4123,9 @@
       <c r="E30" t="n">
         <v>5</v>
       </c>
+      <c r="G30" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3994,6 +4149,9 @@
       <c r="E31" t="n">
         <v>14</v>
       </c>
+      <c r="G31" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4017,6 +4175,9 @@
       <c r="E32" t="n">
         <v>12</v>
       </c>
+      <c r="G32" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4040,6 +4201,9 @@
       <c r="E33" t="n">
         <v>6</v>
       </c>
+      <c r="G33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4063,6 +4227,9 @@
       <c r="E34" t="n">
         <v>12</v>
       </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4086,6 +4253,9 @@
       <c r="E35" t="n">
         <v>2</v>
       </c>
+      <c r="G35" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4109,6 +4279,9 @@
       <c r="E36" t="n">
         <v>1</v>
       </c>
+      <c r="G36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4132,6 +4305,9 @@
       <c r="E37" t="n">
         <v>13</v>
       </c>
+      <c r="G37" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4155,6 +4331,9 @@
       <c r="E38" t="n">
         <v>8</v>
       </c>
+      <c r="G38" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4178,6 +4357,9 @@
       <c r="E39" t="n">
         <v>11</v>
       </c>
+      <c r="G39" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4201,6 +4383,9 @@
       <c r="E40" t="n">
         <v>4</v>
       </c>
+      <c r="G40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4224,6 +4409,9 @@
       <c r="E41" t="n">
         <v>5</v>
       </c>
+      <c r="G41" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4247,6 +4435,9 @@
       <c r="E42" t="n">
         <v>14</v>
       </c>
+      <c r="G42" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4270,6 +4461,9 @@
       <c r="E43" t="n">
         <v>1</v>
       </c>
+      <c r="G43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4293,6 +4487,9 @@
       <c r="E44" t="n">
         <v>6</v>
       </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4316,6 +4513,9 @@
       <c r="E45" t="n">
         <v>9</v>
       </c>
+      <c r="G45" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4339,6 +4539,9 @@
       <c r="E46" t="n">
         <v>3</v>
       </c>
+      <c r="G46" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4362,6 +4565,9 @@
       <c r="E47" t="n">
         <v>10</v>
       </c>
+      <c r="G47" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4385,6 +4591,9 @@
       <c r="E48" t="n">
         <v>8</v>
       </c>
+      <c r="G48" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4407,6 +4616,9 @@
       </c>
       <c r="E49" t="n">
         <v>2</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4796,6 +5008,9 @@
       <c r="F10" t="n">
         <v>1</v>
       </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4824,6 +5039,9 @@
       <c r="F11" t="n">
         <v>7</v>
       </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4852,6 +5070,9 @@
       <c r="F12" t="n">
         <v>8</v>
       </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4880,6 +5101,9 @@
       <c r="F13" t="n">
         <v>3</v>
       </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4908,6 +5132,9 @@
       <c r="F14" t="n">
         <v>1</v>
       </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4936,6 +5163,9 @@
       <c r="F15" t="n">
         <v>7</v>
       </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4964,6 +5194,9 @@
       <c r="F16" t="n">
         <v>3</v>
       </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4992,6 +5225,9 @@
       <c r="F17" t="n">
         <v>5</v>
       </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5020,6 +5256,9 @@
       <c r="F18" t="n">
         <v>6</v>
       </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5048,6 +5287,9 @@
       <c r="F19" t="n">
         <v>4</v>
       </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5076,6 +5318,9 @@
       <c r="F20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5104,6 +5349,9 @@
       <c r="F21" t="n">
         <v>5</v>
       </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5132,6 +5380,9 @@
       <c r="F22" t="n">
         <v>4</v>
       </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5160,6 +5411,9 @@
       <c r="F23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5188,6 +5442,9 @@
       <c r="F24" t="n">
         <v>6</v>
       </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5215,6 +5472,9 @@
       </c>
       <c r="F25" t="n">
         <v>8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/reports/seeded_teams.xlsx
+++ b/reports/seeded_teams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a11khan\Documents\Here_Projects\OfficePrj\TLOL_Dash\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D4E1EE-ECA1-4DCF-88F7-3E419731599B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4138B33-B78F-4EDA-B96B-1546739782B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,13 +23,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Chess!$A$1:$T$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Fixtures_Table tennis'!$A$1:$H$68</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="252">
   <si>
     <t>team_name</t>
   </si>
@@ -785,12 +786,6 @@
   </si>
   <si>
     <t>Winner SF2</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>l</t>
   </si>
 </sst>
 </file>
@@ -11133,10 +11128,20 @@
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
@@ -11186,9 +11191,6 @@
       <c r="G2" t="s">
         <v>92</v>
       </c>
-      <c r="H2" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
@@ -11212,9 +11214,6 @@
       <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
@@ -11238,9 +11237,6 @@
       <c r="G4" t="s">
         <v>200</v>
       </c>
-      <c r="H4" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
@@ -11264,9 +11260,6 @@
       <c r="G5" t="s">
         <v>196</v>
       </c>
-      <c r="H5" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
@@ -11290,9 +11283,6 @@
       <c r="G6" t="s">
         <v>190</v>
       </c>
-      <c r="H6" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
@@ -11316,9 +11306,6 @@
       <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="H7" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
@@ -12661,6 +12648,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H68" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>